--- a/meta_data/populations_summary_table.xlsx
+++ b/meta_data/populations_summary_table.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="0" windowWidth="19680" windowHeight="20580" tabRatio="500"/>
+    <workbookView xWindow="4720" yWindow="0" windowWidth="32680" windowHeight="20680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$49</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="135">
   <si>
     <t>study</t>
   </si>
@@ -318,9 +321,6 @@
     <t>jones</t>
   </si>
   <si>
-    <t>BITJ</t>
-  </si>
-  <si>
     <t>atlantic</t>
   </si>
   <si>
@@ -333,9 +333,6 @@
     <t>WGS</t>
   </si>
   <si>
-    <t>Iceland</t>
-  </si>
-  <si>
     <t>Feulner</t>
   </si>
   <si>
@@ -345,73 +342,10 @@
     <t>PRJEB2954</t>
   </si>
   <si>
-    <t>NTRW</t>
-  </si>
-  <si>
     <t>LITC_0_45_2008_789</t>
   </si>
   <si>
     <t>pac</t>
-  </si>
-  <si>
-    <t>KODK</t>
-  </si>
-  <si>
-    <t>MANC</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>miller</t>
-  </si>
-  <si>
-    <t>WCM</t>
-  </si>
-  <si>
-    <t>BAM</t>
-  </si>
-  <si>
-    <t>Oyster2</t>
-  </si>
-  <si>
-    <t>seyw</t>
-  </si>
-  <si>
-    <t>Salmon</t>
-  </si>
-  <si>
-    <t>terekhanova</t>
-  </si>
-  <si>
-    <t>mashinnoye_lake</t>
-  </si>
-  <si>
-    <t>mash</t>
-  </si>
-  <si>
-    <t>nilma</t>
-  </si>
-  <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>ershovskoye</t>
-  </si>
-  <si>
-    <t>ershov_an</t>
-  </si>
-  <si>
-    <t>ershov_res</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRP023197 </t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>Yoshida</t>
@@ -1030,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1313,396 +1247,396 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J8">
-        <v>44.172317</v>
+        <v>44.498524249107099</v>
       </c>
       <c r="K8">
-        <v>-120.504409</v>
+        <v>-63.903436008608402</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J9">
-        <v>43.592239999999997</v>
+        <v>44.498524249107099</v>
       </c>
       <c r="K9">
-        <v>-124.24294</v>
+        <v>-63.903436008608402</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J10">
-        <v>44.531467999999997</v>
+        <v>45.631966988922898</v>
       </c>
       <c r="K10">
-        <v>-123.59262</v>
+        <v>-61.960002302616999</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>45.671885107788398</v>
+      </c>
+      <c r="K11">
+        <v>-61.861228585455201</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11">
         <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11">
-        <v>43.424292999999999</v>
-      </c>
-      <c r="K11">
-        <v>-121.152565</v>
-      </c>
-      <c r="L11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J12">
-        <v>43.42736</v>
+        <v>45.457721942962003</v>
       </c>
       <c r="K12">
-        <v>-121.152715</v>
+        <v>-61.612087614328502</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J13">
-        <v>44.042805000000001</v>
+        <v>45.457721942962003</v>
       </c>
       <c r="K13">
-        <v>-123.01181099999999</v>
+        <v>-61.612087614328502</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="M13">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J14">
-        <v>44.000300000000003</v>
+        <v>45.352657319635099</v>
       </c>
       <c r="K14">
-        <v>-123.563084</v>
+        <v>-61.472834033979801</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="M14">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J15">
-        <v>43.430292999999999</v>
+        <v>45.352657319635099</v>
       </c>
       <c r="K15">
-        <v>-124.07584199999999</v>
+        <v>-61.472834033979801</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J16">
-        <v>43.144736999999999</v>
+        <v>45.970416865544202</v>
       </c>
       <c r="K16">
-        <v>-124.190268</v>
+        <v>-61.119302306360801</v>
       </c>
       <c r="L16" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J17">
-        <v>56.329799999999999</v>
+        <v>45.992159089536301</v>
       </c>
       <c r="K17">
-        <v>10.047599999999999</v>
+        <v>-60.9849846175781</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
@@ -1711,36 +1645,36 @@
         <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
         <v>33</v>
       </c>
       <c r="J18">
-        <v>56.382883</v>
+        <v>61.613799</v>
       </c>
       <c r="K18">
-        <v>9.3542199999999998</v>
+        <v>-149.75649999999999</v>
       </c>
       <c r="L18" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
@@ -1749,19 +1683,19 @@
         <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
         <v>33</v>
       </c>
       <c r="J19">
-        <v>56.662588</v>
+        <v>60.126899999999999</v>
       </c>
       <c r="K19">
-        <v>9.9686120000000003</v>
+        <v>-149.40649999999999</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="M19">
         <v>20</v>
@@ -1772,13 +1706,13 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
         <v>32</v>
@@ -1793,16 +1727,16 @@
         <v>33</v>
       </c>
       <c r="J20">
-        <v>61.613799</v>
+        <v>61.32987</v>
       </c>
       <c r="K20">
-        <v>-149.75649999999999</v>
+        <v>-149.15137799999999</v>
       </c>
       <c r="L20" t="s">
         <v>70</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1845,16 +1779,16 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>32</v>
@@ -1863,36 +1797,36 @@
         <v>17</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s">
         <v>33</v>
       </c>
       <c r="J22">
-        <v>61.32987</v>
+        <v>50.364620000000002</v>
       </c>
       <c r="K22">
-        <v>-149.15137799999999</v>
+        <v>-127.32228000000001</v>
       </c>
       <c r="L22" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
@@ -1901,22 +1835,22 @@
         <v>17</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s">
         <v>33</v>
       </c>
       <c r="J23">
-        <v>60.126899999999999</v>
+        <v>50.373220000000003</v>
       </c>
       <c r="K23">
-        <v>-149.40649999999999</v>
+        <v>-127.29067999999999</v>
       </c>
       <c r="L23" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1924,13 +1858,13 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
         <v>32</v>
@@ -1945,16 +1879,16 @@
         <v>33</v>
       </c>
       <c r="J24">
-        <v>50.03002</v>
+        <v>50.36591</v>
       </c>
       <c r="K24">
-        <v>-125.32274</v>
+        <v>-127.17041</v>
       </c>
       <c r="L24" t="s">
         <v>53</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1962,13 +1896,13 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
         <v>32</v>
@@ -1983,10 +1917,10 @@
         <v>33</v>
       </c>
       <c r="J25">
-        <v>50.021709999999999</v>
+        <v>50.363489999999999</v>
       </c>
       <c r="K25">
-        <v>-125.33591</v>
+        <v>-127.15554</v>
       </c>
       <c r="L25" t="s">
         <v>53</v>
@@ -2000,13 +1934,13 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
         <v>32</v>
@@ -2021,13 +1955,13 @@
         <v>33</v>
       </c>
       <c r="J26">
-        <v>47.332250000000002</v>
+        <v>50.143079999999998</v>
       </c>
       <c r="K26">
-        <v>9.2248249999999992</v>
+        <v>-125.35201000000001</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="M26">
         <v>27</v>
@@ -2038,13 +1972,13 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
@@ -2059,13 +1993,13 @@
         <v>33</v>
       </c>
       <c r="J27">
-        <v>47.332925000000003</v>
+        <v>50.021709999999999</v>
       </c>
       <c r="K27">
-        <v>9.1642379999999992</v>
+        <v>-125.33591</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="M27">
         <v>27</v>
@@ -2076,13 +2010,13 @@
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
         <v>32</v>
@@ -2097,13 +2031,13 @@
         <v>33</v>
       </c>
       <c r="J28">
-        <v>46.312890000000003</v>
+        <v>50.133749999999999</v>
       </c>
       <c r="K28">
-        <v>6.3441700000000001</v>
+        <v>-125.33131</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="M28">
         <v>27</v>
@@ -2114,13 +2048,13 @@
         <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
         <v>32</v>
@@ -2135,30 +2069,30 @@
         <v>33</v>
       </c>
       <c r="J29">
-        <v>46.205218000000002</v>
+        <v>50.03002</v>
       </c>
       <c r="K29">
-        <v>6.5437430000000001</v>
+        <v>-125.32274</v>
       </c>
       <c r="L29" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -2167,36 +2101,36 @@
         <v>17</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s">
         <v>33</v>
       </c>
       <c r="J30">
-        <v>50.373220000000003</v>
+        <v>43.592239999999997</v>
       </c>
       <c r="K30">
-        <v>-127.29067999999999</v>
+        <v>-124.24294</v>
       </c>
       <c r="L30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
         <v>32</v>
@@ -2205,36 +2139,36 @@
         <v>17</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s">
         <v>33</v>
       </c>
       <c r="J31">
-        <v>50.364620000000002</v>
+        <v>43.144736999999999</v>
       </c>
       <c r="K31">
-        <v>-127.32228000000001</v>
+        <v>-124.190268</v>
       </c>
       <c r="L31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
         <v>32</v>
@@ -2243,36 +2177,36 @@
         <v>17</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s">
         <v>33</v>
       </c>
       <c r="J32">
-        <v>50.363489999999999</v>
+        <v>43.430292999999999</v>
       </c>
       <c r="K32">
-        <v>-127.15554</v>
+        <v>-124.07584199999999</v>
       </c>
       <c r="L32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
         <v>32</v>
@@ -2281,36 +2215,36 @@
         <v>17</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s">
         <v>33</v>
       </c>
       <c r="J33">
-        <v>50.36591</v>
+        <v>44.531467999999997</v>
       </c>
       <c r="K33">
-        <v>-127.17041</v>
+        <v>-123.59262</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
@@ -2319,36 +2253,36 @@
         <v>17</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
         <v>33</v>
       </c>
       <c r="J34">
-        <v>50.133749999999999</v>
+        <v>44.000300000000003</v>
       </c>
       <c r="K34">
-        <v>-125.33131</v>
+        <v>-123.563084</v>
       </c>
       <c r="L34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
         <v>32</v>
@@ -2357,74 +2291,74 @@
         <v>17</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="I35" t="s">
         <v>33</v>
       </c>
       <c r="J35">
-        <v>50.143079999999998</v>
+        <v>44.042805000000001</v>
       </c>
       <c r="K35">
-        <v>-125.35201000000001</v>
+        <v>-123.01181099999999</v>
       </c>
       <c r="L35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I36" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J36">
-        <v>56.369190000000003</v>
+        <v>43.42736</v>
       </c>
       <c r="K36">
-        <v>8.1819400000000009</v>
+        <v>-121.152715</v>
       </c>
       <c r="L36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M36">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
         <v>32</v>
@@ -2433,36 +2367,36 @@
         <v>17</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="I37" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J37">
-        <v>65.456999999999994</v>
+        <v>43.424292999999999</v>
       </c>
       <c r="K37">
-        <v>-21.44</v>
+        <v>-121.152565</v>
       </c>
       <c r="L37" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
         <v>32</v>
@@ -2471,36 +2405,36 @@
         <v>17</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="I38" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J38">
-        <v>68.5</v>
+        <v>44.172317</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>-120.504409</v>
       </c>
       <c r="L38" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
         <v>32</v>
@@ -2509,36 +2443,36 @@
         <v>17</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J39">
-        <v>49.012999999999998</v>
+        <v>46.312890000000003</v>
       </c>
       <c r="K39">
-        <v>-122.77800000000001</v>
+        <v>6.3441700000000001</v>
       </c>
       <c r="L39" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
         <v>32</v>
@@ -2547,36 +2481,36 @@
         <v>17</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J40">
-        <v>56.965000000000003</v>
+        <v>46.205218000000002</v>
       </c>
       <c r="K40">
-        <v>-151.35</v>
+        <v>6.5437430000000001</v>
       </c>
       <c r="L40" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
         <v>32</v>
@@ -2585,823 +2519,334 @@
         <v>17</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J41">
-        <v>47.567</v>
+        <v>47.332925000000003</v>
       </c>
       <c r="K41">
-        <v>122.547</v>
+        <v>9.1642379999999992</v>
       </c>
       <c r="L41" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J42">
-        <v>49.191544999999998</v>
+        <v>47.332250000000002</v>
       </c>
       <c r="K42">
-        <v>-122.655709</v>
+        <v>9.2248249999999992</v>
       </c>
       <c r="L42" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J43">
-        <v>48.824876000000003</v>
+        <v>56.382883</v>
       </c>
       <c r="K43">
-        <v>-125.136342</v>
+        <v>9.3542199999999998</v>
       </c>
       <c r="L43" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
         <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J44">
-        <v>49.612096999999999</v>
+        <v>56.662588</v>
       </c>
       <c r="K44">
-        <v>-124.032062</v>
+        <v>9.9686120000000003</v>
       </c>
       <c r="L44" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I45" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J45">
-        <v>50.373634000000003</v>
+        <v>56.329799999999999</v>
       </c>
       <c r="K45">
-        <v>-125.92949400000001</v>
+        <v>10.047599999999999</v>
       </c>
       <c r="L45" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J46">
-        <v>49.175162999999998</v>
+        <v>49.012999999999998</v>
       </c>
       <c r="K46">
-        <v>-122.59434</v>
+        <v>-122.77800000000001</v>
       </c>
       <c r="L46" t="s">
         <v>53</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="I47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J47">
-        <v>66.177400000000006</v>
+        <v>56.369190000000003</v>
       </c>
       <c r="K47">
-        <v>33.218200000000003</v>
+        <v>8.1819400000000009</v>
       </c>
       <c r="L47" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="F48" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>129</v>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>110</v>
       </c>
       <c r="I48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J48">
-        <v>66.304500000000004</v>
+        <v>43.053750000000001</v>
       </c>
       <c r="K48">
-        <v>33.768000000000001</v>
+        <v>144.89443</v>
       </c>
       <c r="L48" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="F49" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>129</v>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>110</v>
       </c>
       <c r="I49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J49">
-        <v>66.322100000000006</v>
+        <v>43.053750000000001</v>
       </c>
       <c r="K49">
-        <v>33.362000000000002</v>
+        <v>144.89443</v>
       </c>
       <c r="L49" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="M49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I50" t="s">
-        <v>103</v>
-      </c>
-      <c r="J50">
-        <v>66.322100000000006</v>
-      </c>
-      <c r="K50">
-        <v>33.362000000000002</v>
-      </c>
-      <c r="L50" t="s">
-        <v>128</v>
-      </c>
-      <c r="M50">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>133</v>
-      </c>
-      <c r="I51" t="s">
-        <v>103</v>
-      </c>
-      <c r="J51">
-        <v>43.053750000000001</v>
-      </c>
-      <c r="K51">
-        <v>144.89443</v>
-      </c>
-      <c r="L51" t="s">
-        <v>134</v>
-      </c>
-      <c r="M51">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>133</v>
-      </c>
-      <c r="I52" t="s">
-        <v>103</v>
-      </c>
-      <c r="J52">
-        <v>43.053750000000001</v>
-      </c>
-      <c r="K52">
-        <v>144.89443</v>
-      </c>
-      <c r="L52" t="s">
-        <v>134</v>
-      </c>
-      <c r="M52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53">
-        <v>45.352657319635099</v>
-      </c>
-      <c r="K53">
-        <v>-61.472834033979801</v>
-      </c>
-      <c r="L53" t="s">
-        <v>143</v>
-      </c>
-      <c r="M53">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D54" t="s">
-        <v>154</v>
-      </c>
-      <c r="E54" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54">
-        <v>45.352657319635099</v>
-      </c>
-      <c r="K54">
-        <v>-61.472834033979801</v>
-      </c>
-      <c r="L54" t="s">
-        <v>143</v>
-      </c>
-      <c r="M54">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55">
-        <v>45.992159089536301</v>
-      </c>
-      <c r="K55">
-        <v>-60.9849846175781</v>
-      </c>
-      <c r="L55" t="s">
-        <v>143</v>
-      </c>
-      <c r="M55">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" t="s">
-        <v>137</v>
-      </c>
-      <c r="B56" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56">
-        <v>45.970416865544202</v>
-      </c>
-      <c r="K56">
-        <v>-61.119302306360801</v>
-      </c>
-      <c r="L56" t="s">
-        <v>143</v>
-      </c>
-      <c r="M56">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57">
-        <v>45.457721942962003</v>
-      </c>
-      <c r="K57">
-        <v>-61.612087614328502</v>
-      </c>
-      <c r="L57" t="s">
-        <v>143</v>
-      </c>
-      <c r="M57">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" t="s">
-        <v>137</v>
-      </c>
-      <c r="B58" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58">
-        <v>45.457721942962003</v>
-      </c>
-      <c r="K58">
-        <v>-61.612087614328502</v>
-      </c>
-      <c r="L58" t="s">
-        <v>143</v>
-      </c>
-      <c r="M58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59">
-        <v>44.498524249107099</v>
-      </c>
-      <c r="K59">
-        <v>-63.903436008608402</v>
-      </c>
-      <c r="L59" t="s">
-        <v>143</v>
-      </c>
-      <c r="M59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60">
-        <v>44.498524249107099</v>
-      </c>
-      <c r="K60">
-        <v>-63.903436008608402</v>
-      </c>
-      <c r="L60" t="s">
-        <v>143</v>
-      </c>
-      <c r="M60">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61">
-        <v>45.631966988922898</v>
-      </c>
-      <c r="K61">
-        <v>-61.960002302616999</v>
-      </c>
-      <c r="L61" t="s">
-        <v>143</v>
-      </c>
-      <c r="M61">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62">
-        <v>45.671885107788398</v>
-      </c>
-      <c r="K62">
-        <v>-61.861228585455201</v>
-      </c>
-      <c r="L62" t="s">
-        <v>143</v>
-      </c>
-      <c r="M62">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:M49">
+    <sortState ref="A2:M62">
+      <sortCondition ref="I1:I62"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
